--- a/2022-12-14_anforderungsliste_laptop.xlsx
+++ b/2022-12-14_anforderungsliste_laptop.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmuelhei\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vaillantgroup-my.sharepoint.com/personal/max_muelheim_vaillant-group_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B78FB51-88BC-454B-91E8-72149B392ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3B78FB51-88BC-454B-91E8-72149B392ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB19DE64-07B3-473D-A4CD-32C829402B67}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,13 +354,13 @@
     <t>0.9</t>
   </si>
   <si>
-    <t>10.10.</t>
-  </si>
-  <si>
     <t>- Anpassung einiger Werte an die Laptop Kennwerte</t>
   </si>
   <si>
     <t>Wh</t>
+  </si>
+  <si>
+    <t>14.12.</t>
   </si>
 </sst>
 </file>
@@ -624,10 +624,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1464,17 +1464,17 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>101</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1559,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>25</v>
@@ -2039,8 +2039,8 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2057,18 +2057,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -2113,7 +2113,7 @@
         <v>45</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>25</v>
@@ -2514,15 +2514,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
@@ -2531,6 +2522,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2553,14 +2553,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9453F51-199E-49EC-85E6-A038B1EB71A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D7F6ED1-E28B-4677-93D3-7636B77D9D1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2569,4 +2561,12 @@
     <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9453F51-199E-49EC-85E6-A038B1EB71A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>